--- a/Jogos_da_Semana_FlashScore_2024-10-07.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-07.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD9"/>
+  <dimension ref="A1:BD8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -929,22 +929,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="H3" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I3" t="n">
         <v>3.4</v>
       </c>
-      <c r="I3" t="n">
-        <v>3.9</v>
-      </c>
       <c r="J3" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K3" t="n">
         <v>2.05</v>
       </c>
       <c r="L3" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M3" t="n">
         <v>1.07</v>
@@ -965,37 +965,37 @@
         <v>1.65</v>
       </c>
       <c r="S3" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T3" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U3" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="V3" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="W3" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X3" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB3" t="n">
         <v>34</v>
       </c>
       <c r="AC3" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD3" t="n">
         <v>6.5</v>
@@ -1004,22 +1004,22 @@
         <v>17</v>
       </c>
       <c r="AF3" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG3" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ3" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AK3" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL3" t="n">
         <v>41</v>
@@ -1028,10 +1028,10 @@
         <v>351</v>
       </c>
       <c r="AN3" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP3" t="n">
         <v>23</v>
@@ -1046,31 +1046,31 @@
         <v>201</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU3" t="n">
         <v>8.5</v>
       </c>
       <c r="AV3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ3" t="n">
         <v>67</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>23</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>81</v>
       </c>
       <c r="BA3" t="n">
         <v>101</v>
       </c>
       <c r="BB3" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BC3" t="n">
         <v>126</v>
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H4" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I4" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="J4" t="n">
         <v>2.88</v>
@@ -1129,22 +1129,22 @@
         <v>3.6</v>
       </c>
       <c r="M4" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N4" t="n">
         <v>11</v>
       </c>
       <c r="O4" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P4" t="n">
         <v>3.75</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="R4" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S4" t="n">
         <v>1.36</v>
@@ -1162,10 +1162,10 @@
         <v>9</v>
       </c>
       <c r="X4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y4" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z4" t="n">
         <v>21</v>
@@ -1180,7 +1180,7 @@
         <v>11</v>
       </c>
       <c r="AD4" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE4" t="n">
         <v>12</v>
@@ -1189,7 +1189,7 @@
         <v>41</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH4" t="n">
         <v>17</v>
@@ -1201,7 +1201,7 @@
         <v>34</v>
       </c>
       <c r="AK4" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL4" t="n">
         <v>29</v>
@@ -1293,76 +1293,76 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="H5" t="n">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="I5" t="n">
-        <v>5.75</v>
+        <v>4.5</v>
       </c>
       <c r="J5" t="n">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="K5" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L5" t="n">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="M5" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O5" t="n">
-        <v>1.37</v>
+        <v>1.44</v>
       </c>
       <c r="P5" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="R5" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U5" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V5" t="n">
         <v>1.62</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U5" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.57</v>
       </c>
       <c r="W5" t="n">
         <v>5.5</v>
       </c>
       <c r="X5" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="Y5" t="n">
         <v>9</v>
       </c>
       <c r="Z5" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AA5" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AB5" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC5" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AD5" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AE5" t="n">
         <v>21</v>
@@ -1371,19 +1371,19 @@
         <v>81</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>9.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AI5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ5" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AK5" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL5" t="n">
         <v>51</v>
@@ -1392,49 +1392,49 @@
         <v>201</v>
       </c>
       <c r="AN5" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="AO5" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AP5" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ5" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AR5" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS5" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AU5" t="n">
         <v>9.5</v>
       </c>
       <c r="AV5" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AW5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AX5" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AY5" t="n">
         <v>41</v>
       </c>
       <c r="AZ5" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA5" t="n">
         <v>151</v>
       </c>
-      <c r="BA5" t="n">
-        <v>201</v>
-      </c>
       <c r="BB5" t="n">
-        <v>501</v>
+        <v>351</v>
       </c>
       <c r="BC5" t="n">
         <v>126</v>
@@ -1475,40 +1475,40 @@
         </is>
       </c>
       <c r="G6" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H6" t="n">
         <v>3.1</v>
       </c>
-      <c r="H6" t="n">
-        <v>3</v>
-      </c>
       <c r="I6" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="J6" t="n">
         <v>4</v>
       </c>
       <c r="K6" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L6" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M6" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N6" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O6" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="P6" t="n">
         <v>2.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="R6" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S6" t="n">
         <v>1.57</v>
@@ -1517,25 +1517,25 @@
         <v>2.25</v>
       </c>
       <c r="U6" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V6" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W6" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X6" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y6" t="n">
         <v>13</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>12</v>
       </c>
       <c r="Z6" t="n">
         <v>34</v>
       </c>
       <c r="AA6" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AB6" t="n">
         <v>41</v>
@@ -1562,7 +1562,7 @@
         <v>10</v>
       </c>
       <c r="AJ6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AK6" t="n">
         <v>23</v>
@@ -1577,7 +1577,7 @@
         <v>5</v>
       </c>
       <c r="AO6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AP6" t="n">
         <v>34</v>
@@ -1616,7 +1616,7 @@
         <v>81</v>
       </c>
       <c r="BB6" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BC6" t="n">
         <v>126</v>
@@ -1657,13 +1657,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="H7" t="n">
         <v>3.3</v>
       </c>
       <c r="I7" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J7" t="n">
         <v>3.1</v>
@@ -1672,19 +1672,19 @@
         <v>2.05</v>
       </c>
       <c r="L7" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M7" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O7" t="n">
         <v>1.33</v>
       </c>
       <c r="P7" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q7" t="n">
         <v>2.1</v>
@@ -1720,7 +1720,7 @@
         <v>21</v>
       </c>
       <c r="AB7" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC7" t="n">
         <v>9</v>
@@ -1744,7 +1744,7 @@
         <v>11</v>
       </c>
       <c r="AJ7" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AK7" t="n">
         <v>26</v>
@@ -1789,7 +1789,7 @@
         <v>17</v>
       </c>
       <c r="AY7" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ7" t="n">
         <v>51</v>
@@ -1839,22 +1839,22 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I8" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J8" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K8" t="n">
         <v>2</v>
       </c>
       <c r="L8" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M8" t="n">
         <v>1.1</v>
@@ -1875,16 +1875,16 @@
         <v>1.57</v>
       </c>
       <c r="S8" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="T8" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="U8" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V8" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W8" t="n">
         <v>5.5</v>
@@ -1893,7 +1893,7 @@
         <v>7.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z8" t="n">
         <v>15</v>
@@ -1902,13 +1902,13 @@
         <v>17</v>
       </c>
       <c r="AB8" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC8" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD8" t="n">
         <v>6.5</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>6</v>
       </c>
       <c r="AE8" t="n">
         <v>19</v>
@@ -1944,22 +1944,22 @@
         <v>10</v>
       </c>
       <c r="AP8" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ8" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR8" t="n">
         <v>67</v>
       </c>
       <c r="AS8" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AU8" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV8" t="n">
         <v>67</v>
@@ -1987,188 +1987,6 @@
       </c>
       <c r="BD8" t="n">
         <v>51</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>KQEGIaRQ</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>06/10/2024</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>23:05</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>MEXICO - LIGA MX</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Santos Laguna</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Juarez</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="H9" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="I9" t="n">
-        <v>2</v>
-      </c>
-      <c r="J9" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K9" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L9" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N9" t="n">
-        <v>13</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P9" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="R9" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T9" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="V9" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="W9" t="n">
-        <v>13</v>
-      </c>
-      <c r="X9" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>9</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>126</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>11</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>19</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>34</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB9" t="n">
-        <v>101</v>
-      </c>
-      <c r="BC9" t="n">
-        <v>401</v>
-      </c>
-      <c r="BD9" t="n">
-        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2024-10-07.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-07.xlsx
@@ -747,22 +747,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="H2" t="n">
         <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>2.45</v>
+        <v>2.7</v>
       </c>
       <c r="J2" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="K2" t="n">
         <v>1.91</v>
       </c>
       <c r="L2" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M2" t="n">
         <v>1.11</v>
@@ -771,16 +771,16 @@
         <v>6.5</v>
       </c>
       <c r="O2" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P2" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="R2" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="S2" t="n">
         <v>1.57</v>
@@ -795,16 +795,16 @@
         <v>1.62</v>
       </c>
       <c r="W2" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AA2" t="n">
         <v>29</v>
@@ -813,7 +813,7 @@
         <v>41</v>
       </c>
       <c r="AC2" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AD2" t="n">
         <v>6</v>
@@ -822,19 +822,19 @@
         <v>19</v>
       </c>
       <c r="AF2" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AI2" t="n">
         <v>11</v>
       </c>
       <c r="AJ2" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AK2" t="n">
         <v>26</v>
@@ -846,22 +846,22 @@
         <v>201</v>
       </c>
       <c r="AN2" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP2" t="n">
         <v>34</v>
       </c>
       <c r="AQ2" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AR2" t="n">
         <v>101</v>
       </c>
       <c r="AS2" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AT2" t="n">
         <v>2.25</v>
@@ -873,19 +873,19 @@
         <v>81</v>
       </c>
       <c r="AW2" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AX2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AY2" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ2" t="n">
         <v>51</v>
       </c>
       <c r="BA2" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB2" t="n">
         <v>301</v>
@@ -959,10 +959,10 @@
         <v>3</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="R3" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="S3" t="n">
         <v>1.44</v>
@@ -1111,22 +1111,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="H4" t="n">
         <v>3.25</v>
       </c>
       <c r="I4" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="J4" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K4" t="n">
         <v>2.2</v>
       </c>
       <c r="L4" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M4" t="n">
         <v>1.05</v>
@@ -1141,16 +1141,16 @@
         <v>3.75</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="R4" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="S4" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T4" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U4" t="n">
         <v>1.67</v>
@@ -1159,13 +1159,13 @@
         <v>2.1</v>
       </c>
       <c r="W4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X4" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y4" t="n">
         <v>9</v>
-      </c>
-      <c r="X4" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>9.5</v>
       </c>
       <c r="Z4" t="n">
         <v>21</v>
@@ -1177,13 +1177,13 @@
         <v>26</v>
       </c>
       <c r="AC4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD4" t="n">
         <v>6</v>
       </c>
       <c r="AE4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF4" t="n">
         <v>41</v>
@@ -1201,13 +1201,13 @@
         <v>34</v>
       </c>
       <c r="AK4" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AL4" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM4" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AN4" t="n">
         <v>4.33</v>
@@ -1225,10 +1225,10 @@
         <v>51</v>
       </c>
       <c r="AS4" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT4" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU4" t="n">
         <v>7.5</v>
@@ -1237,19 +1237,19 @@
         <v>51</v>
       </c>
       <c r="AW4" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AX4" t="n">
         <v>17</v>
       </c>
       <c r="AY4" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ4" t="n">
         <v>51</v>
       </c>
       <c r="BA4" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB4" t="n">
         <v>151</v>
@@ -1475,40 +1475,40 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H6" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I6" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="J6" t="n">
         <v>4</v>
       </c>
       <c r="K6" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L6" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M6" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N6" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O6" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P6" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="R6" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="S6" t="n">
         <v>1.57</v>
@@ -1517,16 +1517,16 @@
         <v>2.25</v>
       </c>
       <c r="U6" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V6" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W6" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X6" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y6" t="n">
         <v>13</v>
@@ -1547,10 +1547,10 @@
         <v>6</v>
       </c>
       <c r="AE6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF6" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG6" t="n">
         <v>6</v>
@@ -1559,10 +1559,10 @@
         <v>10</v>
       </c>
       <c r="AI6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AK6" t="n">
         <v>23</v>
@@ -1589,7 +1589,7 @@
         <v>101</v>
       </c>
       <c r="AS6" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AT6" t="n">
         <v>2.25</v>
@@ -1598,7 +1598,7 @@
         <v>9</v>
       </c>
       <c r="AV6" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW6" t="n">
         <v>4.33</v>
@@ -1616,7 +1616,7 @@
         <v>81</v>
       </c>
       <c r="BB6" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BC6" t="n">
         <v>126</v>
@@ -1681,16 +1681,16 @@
         <v>9</v>
       </c>
       <c r="O7" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P7" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R7" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S7" t="n">
         <v>1.44</v>
@@ -1839,28 +1839,28 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="H8" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I8" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="J8" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K8" t="n">
         <v>2</v>
       </c>
       <c r="L8" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M8" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O8" t="n">
         <v>1.4</v>
@@ -1887,7 +1887,7 @@
         <v>1.67</v>
       </c>
       <c r="W8" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="X8" t="n">
         <v>7.5</v>
@@ -1908,7 +1908,7 @@
         <v>7</v>
       </c>
       <c r="AD8" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE8" t="n">
         <v>19</v>
@@ -1938,7 +1938,7 @@
         <v>351</v>
       </c>
       <c r="AN8" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AO8" t="n">
         <v>10</v>
@@ -1947,7 +1947,7 @@
         <v>23</v>
       </c>
       <c r="AQ8" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR8" t="n">
         <v>67</v>
@@ -1968,7 +1968,7 @@
         <v>6</v>
       </c>
       <c r="AX8" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AY8" t="n">
         <v>41</v>
@@ -1977,7 +1977,7 @@
         <v>101</v>
       </c>
       <c r="BA8" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BB8" t="n">
         <v>351</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-07.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-07.xlsx
@@ -935,7 +935,7 @@
         <v>3.3</v>
       </c>
       <c r="I3" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J3" t="n">
         <v>2.88</v>
@@ -947,28 +947,28 @@
         <v>4</v>
       </c>
       <c r="M3" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O3" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P3" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="R3" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="S3" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T3" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U3" t="n">
         <v>1.91</v>
@@ -977,7 +977,7 @@
         <v>1.8</v>
       </c>
       <c r="W3" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X3" t="n">
         <v>9.5</v>
@@ -995,7 +995,7 @@
         <v>34</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD3" t="n">
         <v>6.5</v>
@@ -1013,10 +1013,10 @@
         <v>17</v>
       </c>
       <c r="AI3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AK3" t="n">
         <v>29</v>
@@ -1046,19 +1046,19 @@
         <v>201</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU3" t="n">
         <v>8.5</v>
       </c>
       <c r="AV3" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW3" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AX3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY3" t="n">
         <v>29</v>
@@ -1111,22 +1111,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H4" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I4" t="n">
         <v>3.25</v>
       </c>
-      <c r="I4" t="n">
-        <v>3.4</v>
-      </c>
       <c r="J4" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K4" t="n">
         <v>2.2</v>
       </c>
       <c r="L4" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M4" t="n">
         <v>1.05</v>
@@ -1141,16 +1141,16 @@
         <v>3.75</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="R4" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="S4" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T4" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U4" t="n">
         <v>1.67</v>
@@ -1159,7 +1159,7 @@
         <v>2.1</v>
       </c>
       <c r="W4" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X4" t="n">
         <v>11</v>
@@ -1174,16 +1174,16 @@
         <v>17</v>
       </c>
       <c r="AB4" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD4" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF4" t="n">
         <v>41</v>
@@ -1201,13 +1201,13 @@
         <v>34</v>
       </c>
       <c r="AK4" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL4" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM4" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AN4" t="n">
         <v>4.33</v>
@@ -1225,10 +1225,10 @@
         <v>51</v>
       </c>
       <c r="AS4" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU4" t="n">
         <v>7.5</v>
@@ -1237,19 +1237,19 @@
         <v>51</v>
       </c>
       <c r="AW4" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AX4" t="n">
         <v>17</v>
       </c>
       <c r="AY4" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ4" t="n">
         <v>51</v>
       </c>
       <c r="BA4" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB4" t="n">
         <v>151</v>
@@ -1293,22 +1293,22 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="H5" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I5" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="J5" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="K5" t="n">
         <v>2</v>
       </c>
       <c r="L5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M5" t="n">
         <v>1.08</v>
@@ -1323,10 +1323,10 @@
         <v>2.63</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="R5" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S5" t="n">
         <v>1.53</v>
@@ -1335,25 +1335,25 @@
         <v>2.38</v>
       </c>
       <c r="U5" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="V5" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="W5" t="n">
         <v>5.5</v>
       </c>
       <c r="X5" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Y5" t="n">
         <v>9</v>
       </c>
       <c r="Z5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB5" t="n">
         <v>41</v>
@@ -1362,7 +1362,7 @@
         <v>7</v>
       </c>
       <c r="AD5" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE5" t="n">
         <v>21</v>
@@ -1371,10 +1371,10 @@
         <v>81</v>
       </c>
       <c r="AG5" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI5" t="n">
         <v>17</v>
@@ -1392,16 +1392,16 @@
         <v>201</v>
       </c>
       <c r="AN5" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AO5" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AP5" t="n">
         <v>26</v>
       </c>
       <c r="AQ5" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR5" t="n">
         <v>67</v>
@@ -1416,10 +1416,10 @@
         <v>9.5</v>
       </c>
       <c r="AV5" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW5" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AX5" t="n">
         <v>29</v>
@@ -1428,7 +1428,7 @@
         <v>41</v>
       </c>
       <c r="AZ5" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BA5" t="n">
         <v>151</v>
@@ -1481,7 +1481,7 @@
         <v>3</v>
       </c>
       <c r="I6" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="J6" t="n">
         <v>4</v>
@@ -1490,7 +1490,7 @@
         <v>1.91</v>
       </c>
       <c r="L6" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M6" t="n">
         <v>1.11</v>
@@ -1511,16 +1511,16 @@
         <v>1.44</v>
       </c>
       <c r="S6" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V6" t="n">
         <v>1.57</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U6" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.62</v>
       </c>
       <c r="W6" t="n">
         <v>7</v>
@@ -1541,7 +1541,7 @@
         <v>41</v>
       </c>
       <c r="AC6" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AD6" t="n">
         <v>6</v>
@@ -1565,7 +1565,7 @@
         <v>23</v>
       </c>
       <c r="AK6" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AL6" t="n">
         <v>41</v>
@@ -1586,16 +1586,16 @@
         <v>67</v>
       </c>
       <c r="AR6" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AS6" t="n">
         <v>351</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AU6" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV6" t="n">
         <v>81</v>
@@ -1607,13 +1607,13 @@
         <v>15</v>
       </c>
       <c r="AY6" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ6" t="n">
         <v>51</v>
       </c>
       <c r="BA6" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB6" t="n">
         <v>301</v>
@@ -1657,22 +1657,22 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="H7" t="n">
         <v>3.3</v>
       </c>
       <c r="I7" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="J7" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K7" t="n">
         <v>2.05</v>
       </c>
       <c r="L7" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M7" t="n">
         <v>1.07</v>
@@ -1687,10 +1687,10 @@
         <v>3</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R7" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S7" t="n">
         <v>1.44</v>
@@ -1699,16 +1699,16 @@
         <v>2.63</v>
       </c>
       <c r="U7" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="V7" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W7" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y7" t="n">
         <v>9.5</v>
@@ -1723,13 +1723,13 @@
         <v>34</v>
       </c>
       <c r="AC7" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD7" t="n">
         <v>6.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF7" t="n">
         <v>51</v>
@@ -1741,19 +1741,19 @@
         <v>15</v>
       </c>
       <c r="AI7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ7" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AK7" t="n">
         <v>26</v>
       </c>
       <c r="AL7" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM7" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AN7" t="n">
         <v>4.33</v>
@@ -1777,7 +1777,7 @@
         <v>2.63</v>
       </c>
       <c r="AU7" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV7" t="n">
         <v>51</v>
@@ -1786,10 +1786,10 @@
         <v>5</v>
       </c>
       <c r="AX7" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AY7" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ7" t="n">
         <v>51</v>
@@ -1839,22 +1839,22 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I8" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="J8" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K8" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L8" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M8" t="n">
         <v>1.08</v>
@@ -1863,16 +1863,16 @@
         <v>8</v>
       </c>
       <c r="O8" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P8" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.35</v>
+        <v>2.2</v>
       </c>
       <c r="R8" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="S8" t="n">
         <v>1.5</v>
@@ -1887,7 +1887,7 @@
         <v>1.67</v>
       </c>
       <c r="W8" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="X8" t="n">
         <v>7.5</v>
@@ -1896,7 +1896,7 @@
         <v>9</v>
       </c>
       <c r="Z8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA8" t="n">
         <v>17</v>
@@ -1908,7 +1908,7 @@
         <v>7</v>
       </c>
       <c r="AD8" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE8" t="n">
         <v>19</v>
@@ -1938,7 +1938,7 @@
         <v>351</v>
       </c>
       <c r="AN8" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO8" t="n">
         <v>10</v>
@@ -1947,7 +1947,7 @@
         <v>23</v>
       </c>
       <c r="AQ8" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR8" t="n">
         <v>67</v>
@@ -1959,16 +1959,16 @@
         <v>2.5</v>
       </c>
       <c r="AU8" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV8" t="n">
         <v>67</v>
       </c>
       <c r="AW8" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AX8" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AY8" t="n">
         <v>41</v>
@@ -1977,7 +1977,7 @@
         <v>101</v>
       </c>
       <c r="BA8" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BB8" t="n">
         <v>351</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-07.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-07.xlsx
@@ -747,40 +747,40 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="H2" t="n">
         <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="J2" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K2" t="n">
         <v>1.91</v>
       </c>
       <c r="L2" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N2" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O2" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P2" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="R2" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="S2" t="n">
         <v>1.57</v>
@@ -801,7 +801,7 @@
         <v>12</v>
       </c>
       <c r="Y2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z2" t="n">
         <v>29</v>
@@ -813,7 +813,7 @@
         <v>41</v>
       </c>
       <c r="AC2" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AD2" t="n">
         <v>6</v>
@@ -822,19 +822,19 @@
         <v>19</v>
       </c>
       <c r="AF2" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG2" t="n">
         <v>6.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI2" t="n">
         <v>11</v>
       </c>
       <c r="AJ2" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AK2" t="n">
         <v>26</v>
@@ -846,7 +846,7 @@
         <v>201</v>
       </c>
       <c r="AN2" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AO2" t="n">
         <v>17</v>
@@ -929,13 +929,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H3" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="I3" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="J3" t="n">
         <v>2.88</v>
@@ -944,19 +944,19 @@
         <v>2.05</v>
       </c>
       <c r="L3" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M3" t="n">
         <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P3" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q3" t="n">
         <v>2.25</v>
@@ -980,7 +980,7 @@
         <v>6.5</v>
       </c>
       <c r="X3" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Y3" t="n">
         <v>9.5</v>
@@ -995,19 +995,19 @@
         <v>34</v>
       </c>
       <c r="AC3" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF3" t="n">
         <v>51</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AH3" t="n">
         <v>17</v>
@@ -1019,7 +1019,7 @@
         <v>41</v>
       </c>
       <c r="AK3" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL3" t="n">
         <v>41</v>
@@ -1061,7 +1061,7 @@
         <v>21</v>
       </c>
       <c r="AY3" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ3" t="n">
         <v>67</v>
@@ -1293,19 +1293,19 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="H5" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I5" t="n">
-        <v>5</v>
+        <v>5.75</v>
       </c>
       <c r="J5" t="n">
         <v>2.4</v>
       </c>
       <c r="K5" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L5" t="n">
         <v>6</v>
@@ -1329,10 +1329,10 @@
         <v>1.57</v>
       </c>
       <c r="S5" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="T5" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="U5" t="n">
         <v>2.25</v>
@@ -1350,7 +1350,7 @@
         <v>9</v>
       </c>
       <c r="Z5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA5" t="n">
         <v>17</v>
@@ -1362,7 +1362,7 @@
         <v>7</v>
       </c>
       <c r="AD5" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE5" t="n">
         <v>21</v>
@@ -1371,19 +1371,19 @@
         <v>81</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH5" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ5" t="n">
+        <v>67</v>
+      </c>
+      <c r="AK5" t="n">
         <v>51</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>41</v>
       </c>
       <c r="AL5" t="n">
         <v>51</v>
@@ -1410,7 +1410,7 @@
         <v>251</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AU5" t="n">
         <v>9.5</v>
@@ -1419,10 +1419,10 @@
         <v>81</v>
       </c>
       <c r="AW5" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AX5" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AY5" t="n">
         <v>41</v>
@@ -1475,13 +1475,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="I6" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="J6" t="n">
         <v>4</v>
@@ -1493,10 +1493,10 @@
         <v>3.4</v>
       </c>
       <c r="M6" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N6" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O6" t="n">
         <v>1.53</v>
@@ -1517,10 +1517,10 @@
         <v>2.2</v>
       </c>
       <c r="U6" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="V6" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="W6" t="n">
         <v>7</v>
@@ -1547,7 +1547,7 @@
         <v>6</v>
       </c>
       <c r="AE6" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF6" t="n">
         <v>81</v>
@@ -1574,10 +1574,10 @@
         <v>900</v>
       </c>
       <c r="AN6" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AO6" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP6" t="n">
         <v>34</v>
@@ -1586,7 +1586,7 @@
         <v>67</v>
       </c>
       <c r="AR6" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AS6" t="n">
         <v>351</v>
@@ -1657,16 +1657,16 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="H7" t="n">
         <v>3.3</v>
       </c>
       <c r="I7" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="J7" t="n">
         <v>3.1</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3</v>
       </c>
       <c r="K7" t="n">
         <v>2.05</v>
@@ -1699,22 +1699,22 @@
         <v>2.63</v>
       </c>
       <c r="U7" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="V7" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W7" t="n">
         <v>7</v>
       </c>
       <c r="X7" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y7" t="n">
         <v>10</v>
       </c>
-      <c r="Y7" t="n">
-        <v>9.5</v>
-      </c>
       <c r="Z7" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA7" t="n">
         <v>21</v>
@@ -1726,10 +1726,10 @@
         <v>8.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE7" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF7" t="n">
         <v>51</v>
@@ -1741,7 +1741,7 @@
         <v>15</v>
       </c>
       <c r="AI7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ7" t="n">
         <v>34</v>
@@ -1762,7 +1762,7 @@
         <v>13</v>
       </c>
       <c r="AP7" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ7" t="n">
         <v>41</v>
@@ -1786,7 +1786,7 @@
         <v>5</v>
       </c>
       <c r="AX7" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AY7" t="n">
         <v>29</v>
@@ -1839,13 +1839,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="H8" t="n">
         <v>3.1</v>
       </c>
       <c r="I8" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="J8" t="n">
         <v>2.5</v>
@@ -1854,7 +1854,7 @@
         <v>2.05</v>
       </c>
       <c r="L8" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M8" t="n">
         <v>1.08</v>
@@ -1875,28 +1875,28 @@
         <v>1.65</v>
       </c>
       <c r="S8" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T8" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U8" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V8" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="W8" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="X8" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Y8" t="n">
         <v>9</v>
       </c>
       <c r="Z8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA8" t="n">
         <v>17</v>
@@ -1905,16 +1905,16 @@
         <v>34</v>
       </c>
       <c r="AC8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AD8" t="n">
         <v>6.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF8" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG8" t="n">
         <v>11</v>
@@ -1932,13 +1932,13 @@
         <v>41</v>
       </c>
       <c r="AL8" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM8" t="n">
         <v>351</v>
       </c>
       <c r="AN8" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AO8" t="n">
         <v>10</v>
@@ -1950,37 +1950,37 @@
         <v>34</v>
       </c>
       <c r="AR8" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS8" t="n">
         <v>201</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU8" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV8" t="n">
         <v>67</v>
       </c>
       <c r="AW8" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AX8" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AY8" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AZ8" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BA8" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BB8" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BC8" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-07.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-07.xlsx
@@ -765,22 +765,22 @@
         <v>3.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N2" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O2" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P2" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="R2" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="S2" t="n">
         <v>1.57</v>
@@ -795,7 +795,7 @@
         <v>1.62</v>
       </c>
       <c r="W2" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X2" t="n">
         <v>12</v>
@@ -813,7 +813,7 @@
         <v>41</v>
       </c>
       <c r="AC2" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AD2" t="n">
         <v>6</v>
@@ -822,7 +822,7 @@
         <v>19</v>
       </c>
       <c r="AF2" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG2" t="n">
         <v>6.5</v>
@@ -879,7 +879,7 @@
         <v>17</v>
       </c>
       <c r="AY2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ2" t="n">
         <v>51</v>
@@ -1120,49 +1120,49 @@
         <v>3.25</v>
       </c>
       <c r="J4" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K4" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L4" t="n">
         <v>3.6</v>
       </c>
       <c r="M4" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N4" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O4" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P4" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="R4" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S4" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T4" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U4" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="V4" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="W4" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y4" t="n">
         <v>9</v>
@@ -1177,7 +1177,7 @@
         <v>23</v>
       </c>
       <c r="AC4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD4" t="n">
         <v>6.5</v>
@@ -1189,7 +1189,7 @@
         <v>41</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH4" t="n">
         <v>17</v>
@@ -1228,7 +1228,7 @@
         <v>126</v>
       </c>
       <c r="AT4" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU4" t="n">
         <v>7.5</v>
@@ -1293,22 +1293,22 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="H5" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="I5" t="n">
-        <v>5.75</v>
+        <v>6.25</v>
       </c>
       <c r="J5" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="K5" t="n">
         <v>2.05</v>
       </c>
       <c r="L5" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M5" t="n">
         <v>1.08</v>
@@ -1341,16 +1341,16 @@
         <v>1.57</v>
       </c>
       <c r="W5" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="X5" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Y5" t="n">
         <v>9</v>
       </c>
       <c r="Z5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA5" t="n">
         <v>17</v>
@@ -1362,7 +1362,7 @@
         <v>7</v>
       </c>
       <c r="AD5" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE5" t="n">
         <v>21</v>
@@ -1371,13 +1371,13 @@
         <v>81</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH5" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ5" t="n">
         <v>67</v>
@@ -1386,25 +1386,25 @@
         <v>51</v>
       </c>
       <c r="AL5" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AM5" t="n">
         <v>201</v>
       </c>
       <c r="AN5" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AO5" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AP5" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ5" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR5" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS5" t="n">
         <v>251</v>
@@ -1413,7 +1413,7 @@
         <v>2.5</v>
       </c>
       <c r="AU5" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV5" t="n">
         <v>81</v>
@@ -1428,10 +1428,10 @@
         <v>41</v>
       </c>
       <c r="AZ5" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BA5" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BB5" t="n">
         <v>351</v>
@@ -1475,19 +1475,19 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="H6" t="n">
         <v>2.88</v>
       </c>
       <c r="I6" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="J6" t="n">
         <v>4</v>
       </c>
       <c r="K6" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="L6" t="n">
         <v>3.4</v>
@@ -1499,16 +1499,16 @@
         <v>6</v>
       </c>
       <c r="O6" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P6" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="R6" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="S6" t="n">
         <v>1.62</v>
@@ -1517,16 +1517,16 @@
         <v>2.2</v>
       </c>
       <c r="U6" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="V6" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="W6" t="n">
         <v>7</v>
       </c>
       <c r="X6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y6" t="n">
         <v>13</v>
@@ -1538,10 +1538,10 @@
         <v>34</v>
       </c>
       <c r="AB6" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AC6" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AD6" t="n">
         <v>6</v>
@@ -1574,10 +1574,10 @@
         <v>900</v>
       </c>
       <c r="AN6" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AO6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AP6" t="n">
         <v>34</v>
@@ -1586,7 +1586,7 @@
         <v>67</v>
       </c>
       <c r="AR6" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AS6" t="n">
         <v>351</v>
@@ -1657,13 +1657,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="H7" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I7" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J7" t="n">
         <v>3.1</v>
@@ -1681,10 +1681,10 @@
         <v>9</v>
       </c>
       <c r="O7" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P7" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q7" t="n">
         <v>2.2</v>
@@ -1693,16 +1693,16 @@
         <v>1.65</v>
       </c>
       <c r="S7" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T7" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U7" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="V7" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W7" t="n">
         <v>7</v>
@@ -1711,10 +1711,10 @@
         <v>11</v>
       </c>
       <c r="Y7" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA7" t="n">
         <v>21</v>
@@ -1726,10 +1726,10 @@
         <v>8.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF7" t="n">
         <v>51</v>
@@ -1741,7 +1741,7 @@
         <v>15</v>
       </c>
       <c r="AI7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ7" t="n">
         <v>34</v>
@@ -1774,7 +1774,7 @@
         <v>201</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU7" t="n">
         <v>8.5</v>
@@ -1839,28 +1839,28 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="H8" t="n">
         <v>3.1</v>
       </c>
       <c r="I8" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J8" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K8" t="n">
         <v>2.05</v>
       </c>
       <c r="L8" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M8" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O8" t="n">
         <v>1.36</v>
@@ -1887,7 +1887,7 @@
         <v>1.73</v>
       </c>
       <c r="W8" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="X8" t="n">
         <v>8</v>
@@ -1908,7 +1908,7 @@
         <v>8</v>
       </c>
       <c r="AD8" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE8" t="n">
         <v>17</v>
@@ -1920,10 +1920,10 @@
         <v>11</v>
       </c>
       <c r="AH8" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI8" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ8" t="n">
         <v>51</v>
@@ -1959,7 +1959,7 @@
         <v>2.63</v>
       </c>
       <c r="AU8" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV8" t="n">
         <v>67</v>
@@ -1968,7 +1968,7 @@
         <v>6</v>
       </c>
       <c r="AX8" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AY8" t="n">
         <v>34</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-07.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-07.xlsx
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="H2" t="n">
         <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="J2" t="n">
         <v>3.75</v>
@@ -762,7 +762,7 @@
         <v>1.91</v>
       </c>
       <c r="L2" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M2" t="n">
         <v>1.11</v>
@@ -798,7 +798,7 @@
         <v>7</v>
       </c>
       <c r="X2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y2" t="n">
         <v>12</v>
@@ -849,13 +849,13 @@
         <v>4.75</v>
       </c>
       <c r="AO2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP2" t="n">
         <v>34</v>
       </c>
       <c r="AQ2" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR2" t="n">
         <v>101</v>
@@ -876,7 +876,7 @@
         <v>4.5</v>
       </c>
       <c r="AX2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AY2" t="n">
         <v>29</v>
@@ -1293,19 +1293,19 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="H5" t="n">
         <v>3.5</v>
       </c>
       <c r="I5" t="n">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="J5" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="K5" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L5" t="n">
         <v>6.5</v>
@@ -1314,19 +1314,19 @@
         <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O5" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P5" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="R5" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="S5" t="n">
         <v>1.5</v>
@@ -1341,7 +1341,7 @@
         <v>1.57</v>
       </c>
       <c r="W5" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="X5" t="n">
         <v>6.5</v>
@@ -1353,13 +1353,13 @@
         <v>11</v>
       </c>
       <c r="AA5" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB5" t="n">
         <v>41</v>
       </c>
       <c r="AC5" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AD5" t="n">
         <v>7</v>
@@ -1371,7 +1371,7 @@
         <v>81</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH5" t="n">
         <v>29</v>
@@ -1407,7 +1407,7 @@
         <v>51</v>
       </c>
       <c r="AS5" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT5" t="n">
         <v>2.5</v>
@@ -1419,7 +1419,7 @@
         <v>81</v>
       </c>
       <c r="AW5" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AX5" t="n">
         <v>34</v>
@@ -1681,10 +1681,10 @@
         <v>9</v>
       </c>
       <c r="O7" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P7" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q7" t="n">
         <v>2.2</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-07.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-07.xlsx
@@ -1296,25 +1296,25 @@
         <v>1.57</v>
       </c>
       <c r="H5" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I5" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="J5" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K5" t="n">
         <v>2.1</v>
       </c>
       <c r="L5" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="M5" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N5" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="O5" t="n">
         <v>1.4</v>
@@ -1341,10 +1341,10 @@
         <v>1.57</v>
       </c>
       <c r="W5" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="X5" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Y5" t="n">
         <v>9</v>
@@ -1359,13 +1359,13 @@
         <v>41</v>
       </c>
       <c r="AC5" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AD5" t="n">
         <v>7</v>
       </c>
       <c r="AE5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF5" t="n">
         <v>81</v>
@@ -1374,13 +1374,13 @@
         <v>13</v>
       </c>
       <c r="AH5" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI5" t="n">
         <v>21</v>
       </c>
       <c r="AJ5" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AK5" t="n">
         <v>51</v>
@@ -1392,7 +1392,7 @@
         <v>201</v>
       </c>
       <c r="AN5" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AO5" t="n">
         <v>8.5</v>
@@ -1407,7 +1407,7 @@
         <v>51</v>
       </c>
       <c r="AS5" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT5" t="n">
         <v>2.5</v>
@@ -1422,7 +1422,7 @@
         <v>7.5</v>
       </c>
       <c r="AX5" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AY5" t="n">
         <v>41</v>
@@ -1657,13 +1657,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H7" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I7" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J7" t="n">
         <v>3.1</v>
@@ -1708,7 +1708,7 @@
         <v>7</v>
       </c>
       <c r="X7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y7" t="n">
         <v>9.5</v>
@@ -1747,7 +1747,7 @@
         <v>34</v>
       </c>
       <c r="AK7" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AL7" t="n">
         <v>41</v>
@@ -1786,7 +1786,7 @@
         <v>5</v>
       </c>
       <c r="AX7" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AY7" t="n">
         <v>29</v>
@@ -1798,7 +1798,7 @@
         <v>81</v>
       </c>
       <c r="BB7" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC7" t="n">
         <v>126</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-07.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-07.xlsx
@@ -1657,13 +1657,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H7" t="n">
         <v>3.3</v>
       </c>
       <c r="I7" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J7" t="n">
         <v>3.1</v>
@@ -1693,22 +1693,22 @@
         <v>1.65</v>
       </c>
       <c r="S7" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T7" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U7" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="V7" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W7" t="n">
         <v>7</v>
       </c>
       <c r="X7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y7" t="n">
         <v>9.5</v>
@@ -1741,13 +1741,13 @@
         <v>15</v>
       </c>
       <c r="AI7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ7" t="n">
         <v>34</v>
       </c>
       <c r="AK7" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AL7" t="n">
         <v>41</v>
@@ -1774,7 +1774,7 @@
         <v>201</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU7" t="n">
         <v>8.5</v>
@@ -1786,7 +1786,7 @@
         <v>5</v>
       </c>
       <c r="AX7" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AY7" t="n">
         <v>29</v>
@@ -1798,7 +1798,7 @@
         <v>81</v>
       </c>
       <c r="BB7" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC7" t="n">
         <v>126</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-07.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-07.xlsx
@@ -771,16 +771,16 @@
         <v>6.5</v>
       </c>
       <c r="O2" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P2" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="R2" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="S2" t="n">
         <v>1.57</v>
@@ -929,16 +929,16 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="H3" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I3" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="J3" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K3" t="n">
         <v>2.05</v>
@@ -950,7 +950,7 @@
         <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O3" t="n">
         <v>1.36</v>
@@ -983,10 +983,10 @@
         <v>9</v>
       </c>
       <c r="Y3" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA3" t="n">
         <v>19</v>
@@ -995,13 +995,13 @@
         <v>34</v>
       </c>
       <c r="AC3" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AD3" t="n">
         <v>6</v>
       </c>
       <c r="AE3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF3" t="n">
         <v>51</v>
@@ -1010,7 +1010,7 @@
         <v>9.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI3" t="n">
         <v>13</v>
@@ -1064,7 +1064,7 @@
         <v>34</v>
       </c>
       <c r="AZ3" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA3" t="n">
         <v>101</v>
@@ -1475,13 +1475,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="H6" t="n">
         <v>2.88</v>
       </c>
       <c r="I6" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="J6" t="n">
         <v>4</v>
@@ -1493,10 +1493,10 @@
         <v>3.4</v>
       </c>
       <c r="M6" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N6" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O6" t="n">
         <v>1.57</v>
@@ -1532,7 +1532,7 @@
         <v>13</v>
       </c>
       <c r="Z6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AA6" t="n">
         <v>34</v>
@@ -1547,7 +1547,7 @@
         <v>6</v>
       </c>
       <c r="AE6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF6" t="n">
         <v>81</v>
@@ -1616,7 +1616,7 @@
         <v>101</v>
       </c>
       <c r="BB6" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BC6" t="n">
         <v>126</v>
@@ -1657,22 +1657,22 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H7" t="n">
         <v>3.3</v>
       </c>
       <c r="I7" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J7" t="n">
         <v>3</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3.1</v>
       </c>
       <c r="K7" t="n">
         <v>2.05</v>
       </c>
       <c r="L7" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M7" t="n">
         <v>1.07</v>
@@ -1693,22 +1693,22 @@
         <v>1.65</v>
       </c>
       <c r="S7" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T7" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U7" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="V7" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W7" t="n">
         <v>7</v>
       </c>
       <c r="X7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y7" t="n">
         <v>9.5</v>
@@ -1741,13 +1741,13 @@
         <v>15</v>
       </c>
       <c r="AI7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ7" t="n">
         <v>34</v>
       </c>
       <c r="AK7" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AL7" t="n">
         <v>41</v>
@@ -1774,7 +1774,7 @@
         <v>201</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU7" t="n">
         <v>8.5</v>
@@ -1786,19 +1786,19 @@
         <v>5</v>
       </c>
       <c r="AX7" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AY7" t="n">
         <v>29</v>
       </c>
       <c r="AZ7" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA7" t="n">
         <v>81</v>
       </c>
       <c r="BB7" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC7" t="n">
         <v>126</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-07.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-07.xlsx
@@ -762,7 +762,7 @@
         <v>1.91</v>
       </c>
       <c r="L2" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M2" t="n">
         <v>1.11</v>
@@ -813,7 +813,7 @@
         <v>41</v>
       </c>
       <c r="AC2" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AD2" t="n">
         <v>6</v>
@@ -822,7 +822,7 @@
         <v>19</v>
       </c>
       <c r="AF2" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG2" t="n">
         <v>6.5</v>
@@ -861,7 +861,7 @@
         <v>101</v>
       </c>
       <c r="AS2" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AT2" t="n">
         <v>2.25</v>
@@ -876,7 +876,7 @@
         <v>4.5</v>
       </c>
       <c r="AX2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AY2" t="n">
         <v>29</v>
@@ -944,7 +944,7 @@
         <v>2.05</v>
       </c>
       <c r="L3" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M3" t="n">
         <v>1.08</v>
@@ -953,10 +953,10 @@
         <v>8</v>
       </c>
       <c r="O3" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P3" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q3" t="n">
         <v>2.25</v>
@@ -971,16 +971,16 @@
         <v>2.5</v>
       </c>
       <c r="U3" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V3" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="W3" t="n">
         <v>6.5</v>
       </c>
       <c r="X3" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Y3" t="n">
         <v>9</v>
@@ -1007,13 +1007,13 @@
         <v>51</v>
       </c>
       <c r="AG3" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH3" t="n">
         <v>19</v>
       </c>
       <c r="AI3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ3" t="n">
         <v>41</v>
@@ -1031,7 +1031,7 @@
         <v>4</v>
       </c>
       <c r="AO3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP3" t="n">
         <v>23</v>
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H4" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I4" t="n">
         <v>3.3</v>
-      </c>
-      <c r="I4" t="n">
-        <v>3.25</v>
       </c>
       <c r="J4" t="n">
         <v>2.75</v>
@@ -1135,16 +1135,16 @@
         <v>13</v>
       </c>
       <c r="O4" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P4" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="R4" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S4" t="n">
         <v>1.33</v>
@@ -1192,7 +1192,7 @@
         <v>12</v>
       </c>
       <c r="AH4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI4" t="n">
         <v>12</v>
@@ -1213,10 +1213,10 @@
         <v>4.33</v>
       </c>
       <c r="AO4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ4" t="n">
         <v>41</v>
@@ -1234,10 +1234,10 @@
         <v>7.5</v>
       </c>
       <c r="AV4" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW4" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AX4" t="n">
         <v>17</v>
@@ -1657,28 +1657,28 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="H7" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I7" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="J7" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="K7" t="n">
         <v>2.05</v>
       </c>
       <c r="L7" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M7" t="n">
         <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O7" t="n">
         <v>1.36</v>
@@ -1708,13 +1708,13 @@
         <v>7</v>
       </c>
       <c r="X7" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y7" t="n">
         <v>10</v>
       </c>
-      <c r="Y7" t="n">
-        <v>9.5</v>
-      </c>
       <c r="Z7" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA7" t="n">
         <v>21</v>
@@ -1735,19 +1735,19 @@
         <v>51</v>
       </c>
       <c r="AG7" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AH7" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ7" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AK7" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AL7" t="n">
         <v>41</v>
@@ -1759,13 +1759,13 @@
         <v>4.33</v>
       </c>
       <c r="AO7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP7" t="n">
         <v>26</v>
       </c>
       <c r="AQ7" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR7" t="n">
         <v>67</v>
@@ -1783,22 +1783,22 @@
         <v>51</v>
       </c>
       <c r="AW7" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AX7" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AY7" t="n">
         <v>29</v>
       </c>
       <c r="AZ7" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BA7" t="n">
         <v>81</v>
       </c>
       <c r="BB7" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC7" t="n">
         <v>126</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-07.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-07.xlsx
@@ -765,10 +765,10 @@
         <v>3.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N2" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O2" t="n">
         <v>1.53</v>
@@ -783,10 +783,10 @@
         <v>1.44</v>
       </c>
       <c r="S2" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="T2" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="U2" t="n">
         <v>2.2</v>
@@ -864,10 +864,10 @@
         <v>351</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AU2" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV2" t="n">
         <v>81</v>
@@ -879,7 +879,7 @@
         <v>17</v>
       </c>
       <c r="AY2" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ2" t="n">
         <v>51</v>
@@ -1839,16 +1839,16 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="H8" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I8" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="J8" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="K8" t="n">
         <v>2.05</v>
@@ -1857,10 +1857,10 @@
         <v>4.75</v>
       </c>
       <c r="M8" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O8" t="n">
         <v>1.36</v>
@@ -1881,16 +1881,16 @@
         <v>2.63</v>
       </c>
       <c r="U8" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="V8" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="W8" t="n">
         <v>6.5</v>
       </c>
       <c r="X8" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Y8" t="n">
         <v>9</v>
@@ -1905,7 +1905,7 @@
         <v>34</v>
       </c>
       <c r="AC8" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD8" t="n">
         <v>6</v>
@@ -1926,7 +1926,7 @@
         <v>15</v>
       </c>
       <c r="AJ8" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AK8" t="n">
         <v>41</v>
@@ -1941,16 +1941,16 @@
         <v>3.75</v>
       </c>
       <c r="AO8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP8" t="n">
         <v>23</v>
       </c>
       <c r="AQ8" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR8" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS8" t="n">
         <v>201</v>
@@ -1977,7 +1977,7 @@
         <v>81</v>
       </c>
       <c r="BA8" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BB8" t="n">
         <v>301</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-07.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-07.xlsx
@@ -1869,10 +1869,10 @@
         <v>3</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R8" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S8" t="n">
         <v>1.44</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-07.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-07.xlsx
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H2" t="n">
         <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="J2" t="n">
         <v>3.75</v>
@@ -762,7 +762,7 @@
         <v>1.91</v>
       </c>
       <c r="L2" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M2" t="n">
         <v>1.13</v>
@@ -804,7 +804,7 @@
         <v>12</v>
       </c>
       <c r="Z2" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AA2" t="n">
         <v>29</v>
@@ -825,7 +825,7 @@
         <v>81</v>
       </c>
       <c r="AG2" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AH2" t="n">
         <v>11</v>
@@ -873,10 +873,10 @@
         <v>81</v>
       </c>
       <c r="AW2" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AX2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AY2" t="n">
         <v>34</v>
@@ -989,13 +989,13 @@
         <v>17</v>
       </c>
       <c r="AA3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB3" t="n">
         <v>34</v>
       </c>
       <c r="AC3" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD3" t="n">
         <v>6</v>
@@ -1028,7 +1028,7 @@
         <v>351</v>
       </c>
       <c r="AN3" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO3" t="n">
         <v>11</v>
@@ -1058,7 +1058,7 @@
         <v>5.5</v>
       </c>
       <c r="AX3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AY3" t="n">
         <v>34</v>
@@ -1070,7 +1070,7 @@
         <v>101</v>
       </c>
       <c r="BB3" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BC3" t="n">
         <v>126</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-07.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-07.xlsx
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="H2" t="n">
         <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="J2" t="n">
         <v>3.75</v>
@@ -762,7 +762,7 @@
         <v>1.91</v>
       </c>
       <c r="L2" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M2" t="n">
         <v>1.13</v>
@@ -1111,22 +1111,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H4" t="n">
         <v>3.4</v>
       </c>
       <c r="I4" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="J4" t="n">
         <v>2.75</v>
       </c>
       <c r="K4" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L4" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M4" t="n">
         <v>1.04</v>
@@ -1153,10 +1153,10 @@
         <v>3.25</v>
       </c>
       <c r="U4" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="V4" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="W4" t="n">
         <v>9.5</v>
@@ -1177,7 +1177,7 @@
         <v>23</v>
       </c>
       <c r="AC4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD4" t="n">
         <v>6.5</v>
@@ -1192,7 +1192,7 @@
         <v>12</v>
       </c>
       <c r="AH4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI4" t="n">
         <v>12</v>
@@ -1207,13 +1207,13 @@
         <v>29</v>
       </c>
       <c r="AM4" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AN4" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP4" t="n">
         <v>19</v>
@@ -1237,13 +1237,13 @@
         <v>41</v>
       </c>
       <c r="AW4" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AX4" t="n">
         <v>17</v>
       </c>
       <c r="AY4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AZ4" t="n">
         <v>51</v>
@@ -1252,7 +1252,7 @@
         <v>67</v>
       </c>
       <c r="BB4" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BC4" t="n">
         <v>126</v>
@@ -1869,10 +1869,10 @@
         <v>3</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R8" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S8" t="n">
         <v>1.44</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-07.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-07.xlsx
@@ -804,7 +804,7 @@
         <v>12</v>
       </c>
       <c r="Z2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AA2" t="n">
         <v>29</v>
@@ -825,7 +825,7 @@
         <v>81</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AH2" t="n">
         <v>11</v>
@@ -873,10 +873,10 @@
         <v>81</v>
       </c>
       <c r="AW2" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AX2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AY2" t="n">
         <v>34</v>
@@ -1293,7 +1293,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="H5" t="n">
         <v>3.6</v>
@@ -1335,10 +1335,10 @@
         <v>2.5</v>
       </c>
       <c r="U5" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="V5" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="W5" t="n">
         <v>5</v>
@@ -1350,7 +1350,7 @@
         <v>9</v>
       </c>
       <c r="Z5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA5" t="n">
         <v>15</v>
@@ -1377,7 +1377,7 @@
         <v>34</v>
       </c>
       <c r="AI5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ5" t="n">
         <v>81</v>
@@ -1395,13 +1395,13 @@
         <v>3.25</v>
       </c>
       <c r="AO5" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AP5" t="n">
         <v>23</v>
       </c>
       <c r="AQ5" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR5" t="n">
         <v>51</v>
@@ -1839,22 +1839,22 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="H8" t="n">
         <v>3</v>
       </c>
       <c r="I8" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="J8" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K8" t="n">
         <v>2.05</v>
       </c>
       <c r="L8" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M8" t="n">
         <v>1.08</v>
@@ -1896,7 +1896,7 @@
         <v>9</v>
       </c>
       <c r="Z8" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA8" t="n">
         <v>17</v>
@@ -1911,7 +1911,7 @@
         <v>6</v>
       </c>
       <c r="AE8" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF8" t="n">
         <v>51</v>
@@ -1938,7 +1938,7 @@
         <v>351</v>
       </c>
       <c r="AN8" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO8" t="n">
         <v>11</v>
@@ -1965,7 +1965,7 @@
         <v>67</v>
       </c>
       <c r="AW8" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AX8" t="n">
         <v>23</v>
@@ -1980,7 +1980,7 @@
         <v>101</v>
       </c>
       <c r="BB8" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BC8" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-07.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-07.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD8"/>
+  <dimension ref="A1:BD7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -765,10 +765,10 @@
         <v>3.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N2" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O2" t="n">
         <v>1.53</v>
@@ -900,7 +900,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>dhuWUY6g</t>
+          <t>McHsxfzM</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,167 +910,167 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE B</t>
+          <t>CHILE - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Sport Recife</t>
+          <t>Cobreloa</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Ceara</t>
+          <t>Copiapo</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="H3" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="I3" t="n">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="J3" t="n">
         <v>2.75</v>
       </c>
       <c r="K3" t="n">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="L3" t="n">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M3" t="n">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="N3" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="O3" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="P3" t="n">
-        <v>2.75</v>
+        <v>4.33</v>
       </c>
       <c r="Q3" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R3" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T3" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V3" t="n">
         <v>2.25</v>
       </c>
-      <c r="R3" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U3" t="n">
-        <v>2</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.73</v>
-      </c>
       <c r="W3" t="n">
-        <v>6.5</v>
+        <v>9.5</v>
       </c>
       <c r="X3" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="Y3" t="n">
         <v>9</v>
       </c>
       <c r="Z3" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AA3" t="n">
         <v>17</v>
       </c>
       <c r="AB3" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AC3" t="n">
-        <v>7.5</v>
+        <v>13</v>
       </c>
       <c r="AD3" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AF3" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AH3" t="n">
         <v>19</v>
       </c>
       <c r="AI3" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AJ3" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AK3" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AL3" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AM3" t="n">
-        <v>351</v>
+        <v>126</v>
       </c>
       <c r="AN3" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="AO3" t="n">
         <v>11</v>
       </c>
       <c r="AP3" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AQ3" t="n">
         <v>41</v>
       </c>
       <c r="AR3" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS3" t="n">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="AU3" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AV3" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AW3" t="n">
         <v>5.5</v>
       </c>
       <c r="AX3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY3" t="n">
         <v>23</v>
       </c>
-      <c r="AY3" t="n">
-        <v>34</v>
-      </c>
       <c r="AZ3" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BA3" t="n">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="BB3" t="n">
-        <v>301</v>
+        <v>126</v>
       </c>
       <c r="BC3" t="n">
         <v>126</v>
@@ -1082,7 +1082,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>McHsxfzM</t>
+          <t>nLv6GUb4</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1097,162 +1097,162 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>CHILE - PRIMERA DIVISION</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Cobreloa</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Copiapo</t>
+          <t>Jaguares de Cordoba</t>
         </is>
       </c>
       <c r="G4" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I4" t="n">
+        <v>7</v>
+      </c>
+      <c r="J4" t="n">
         <v>2.2</v>
       </c>
-      <c r="H4" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I4" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L4" t="n">
+        <v>7</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N4" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P4" t="n">
         <v>2.75</v>
       </c>
-      <c r="K4" t="n">
+      <c r="Q4" t="n">
         <v>2.3</v>
       </c>
-      <c r="L4" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N4" t="n">
-        <v>13</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P4" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.7</v>
-      </c>
       <c r="R4" t="n">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="S4" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="T4" t="n">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U4" t="n">
-        <v>1.57</v>
+        <v>2.38</v>
       </c>
       <c r="V4" t="n">
-        <v>2.25</v>
+        <v>1.53</v>
       </c>
       <c r="W4" t="n">
-        <v>9.5</v>
+        <v>5</v>
       </c>
       <c r="X4" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="Y4" t="n">
         <v>9</v>
       </c>
       <c r="Z4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI4" t="n">
         <v>21</v>
       </c>
-      <c r="AA4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB4" t="n">
+      <c r="AJ4" t="n">
+        <v>81</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>67</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>201</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP4" t="n">
         <v>23</v>
       </c>
-      <c r="AC4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>126</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>19</v>
-      </c>
       <c r="AQ4" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AR4" t="n">
         <v>51</v>
       </c>
       <c r="AS4" t="n">
-        <v>126</v>
+        <v>251</v>
       </c>
       <c r="AT4" t="n">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="AU4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW4" t="n">
         <v>7.5</v>
       </c>
-      <c r="AV4" t="n">
+      <c r="AX4" t="n">
         <v>41</v>
       </c>
-      <c r="AW4" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>17</v>
-      </c>
       <c r="AY4" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AZ4" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
       <c r="BA4" t="n">
-        <v>67</v>
+        <v>201</v>
       </c>
       <c r="BB4" t="n">
-        <v>126</v>
+        <v>351</v>
       </c>
       <c r="BC4" t="n">
         <v>126</v>
@@ -1264,7 +1264,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>nLv6GUb4</t>
+          <t>jgocIjUi</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,7 +1274,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1284,154 +1284,154 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Pereira</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Jaguares de Cordoba</t>
+          <t>Deportes Tolima</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.55</v>
+        <v>3.4</v>
       </c>
       <c r="H5" t="n">
-        <v>3.6</v>
+        <v>2.88</v>
       </c>
       <c r="I5" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="J5" t="n">
+        <v>4</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="L5" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N5" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U5" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W5" t="n">
         <v>7</v>
       </c>
-      <c r="J5" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L5" t="n">
-        <v>7</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N5" t="n">
-        <v>7</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P5" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U5" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="W5" t="n">
-        <v>5</v>
-      </c>
       <c r="X5" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AD5" t="n">
         <v>6</v>
       </c>
-      <c r="Y5" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>7</v>
-      </c>
       <c r="AE5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF5" t="n">
         <v>81</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="AH5" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>900</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP5" t="n">
         <v>34</v>
       </c>
-      <c r="AI5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>81</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL5" t="n">
+      <c r="AQ5" t="n">
         <v>67</v>
       </c>
-      <c r="AM5" t="n">
-        <v>201</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>8</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>26</v>
-      </c>
       <c r="AR5" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="AS5" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AU5" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AV5" t="n">
         <v>81</v>
       </c>
       <c r="AW5" t="n">
-        <v>7.5</v>
+        <v>4.33</v>
       </c>
       <c r="AX5" t="n">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="AY5" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AZ5" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
       <c r="BA5" t="n">
-        <v>201</v>
+        <v>101</v>
       </c>
       <c r="BB5" t="n">
         <v>351</v>
@@ -1446,7 +1446,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>jgocIjUi</t>
+          <t>fgW4NmMs</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,113 +1456,113 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>22:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>DENMARK - 1ST DIVISION</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Pereira</t>
+          <t>Hvidovre IF</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Deportes Tolima</t>
+          <t>Kolding IF</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3.4</v>
+        <v>2.38</v>
       </c>
       <c r="H6" t="n">
-        <v>2.88</v>
+        <v>3.25</v>
       </c>
       <c r="I6" t="n">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="J6" t="n">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="K6" t="n">
-        <v>1.83</v>
+        <v>2.05</v>
       </c>
       <c r="L6" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M6" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>5.5</v>
+        <v>8.5</v>
       </c>
       <c r="O6" t="n">
-        <v>1.57</v>
+        <v>1.36</v>
       </c>
       <c r="P6" t="n">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.88</v>
+        <v>2.2</v>
       </c>
       <c r="R6" t="n">
-        <v>1.4</v>
+        <v>1.65</v>
       </c>
       <c r="S6" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="T6" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="U6" t="n">
-        <v>2.25</v>
+        <v>1.91</v>
       </c>
       <c r="V6" t="n">
-        <v>1.57</v>
+        <v>1.8</v>
       </c>
       <c r="W6" t="n">
         <v>7</v>
       </c>
       <c r="X6" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="Y6" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH6" t="n">
         <v>13</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>6</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>10</v>
       </c>
       <c r="AI6" t="n">
         <v>11</v>
       </c>
       <c r="AJ6" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AK6" t="n">
         <v>26</v>
@@ -1571,52 +1571,52 @@
         <v>41</v>
       </c>
       <c r="AM6" t="n">
-        <v>900</v>
+        <v>351</v>
       </c>
       <c r="AN6" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="AO6" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AP6" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AQ6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR6" t="n">
         <v>67</v>
       </c>
-      <c r="AR6" t="n">
-        <v>126</v>
-      </c>
       <c r="AS6" t="n">
-        <v>351</v>
+        <v>201</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="AU6" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AV6" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AW6" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="AX6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AY6" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ6" t="n">
         <v>51</v>
       </c>
       <c r="BA6" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB6" t="n">
-        <v>351</v>
+        <v>201</v>
       </c>
       <c r="BC6" t="n">
         <v>126</v>
@@ -1628,7 +1628,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>fgW4NmMs</t>
+          <t>6urAWBOM</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,47 +1638,47 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>DENMARK - 1ST DIVISION</t>
+          <t>ECUADOR - LIGA PRO</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Hvidovre IF</t>
+          <t>Macara</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Kolding IF</t>
+          <t>Delfin</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.38</v>
+        <v>1.95</v>
       </c>
       <c r="H7" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="I7" t="n">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="J7" t="n">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="K7" t="n">
         <v>2.05</v>
       </c>
       <c r="L7" t="n">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M7" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N7" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="O7" t="n">
         <v>1.36</v>
@@ -1693,10 +1693,10 @@
         <v>1.65</v>
       </c>
       <c r="S7" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T7" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U7" t="n">
         <v>1.91</v>
@@ -1705,49 +1705,49 @@
         <v>1.8</v>
       </c>
       <c r="W7" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X7" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Z7" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AA7" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AB7" t="n">
         <v>34</v>
       </c>
       <c r="AC7" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE7" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF7" t="n">
         <v>51</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AH7" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AI7" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AJ7" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AK7" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AL7" t="n">
         <v>41</v>
@@ -1756,16 +1756,16 @@
         <v>351</v>
       </c>
       <c r="AN7" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO7" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AP7" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ7" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR7" t="n">
         <v>67</v>
@@ -1774,218 +1774,36 @@
         <v>201</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU7" t="n">
         <v>8.5</v>
       </c>
       <c r="AV7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC7" t="n">
         <v>51</v>
       </c>
-      <c r="AW7" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB7" t="n">
-        <v>201</v>
-      </c>
-      <c r="BC7" t="n">
-        <v>126</v>
-      </c>
       <c r="BD7" t="n">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>6urAWBOM</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>07/10/2024</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>17:30</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>ECUADOR - LIGA PRO</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Macara</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Delfin</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="H8" t="n">
-        <v>3</v>
-      </c>
-      <c r="I8" t="n">
-        <v>4</v>
-      </c>
-      <c r="J8" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="K8" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L8" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N8" t="n">
-        <v>8</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P8" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T8" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W8" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="X8" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>351</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>23</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>81</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>101</v>
-      </c>
-      <c r="BB8" t="n">
-        <v>251</v>
-      </c>
-      <c r="BC8" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD8" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-10-07.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-07.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD7"/>
+  <dimension ref="A1:BD8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>McHsxfzM</t>
+          <t>dhuWUY6g</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,167 +910,167 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>CHILE - PRIMERA DIVISION</t>
+          <t>BRAZIL - SERIE B</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Cobreloa</t>
+          <t>Sport Recife</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Copiapo</t>
+          <t>Ceara</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.15</v>
+        <v>1.91</v>
       </c>
       <c r="H3" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="I3" t="n">
-        <v>3.3</v>
+        <v>4.33</v>
       </c>
       <c r="J3" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K3" t="n">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="L3" t="n">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="M3" t="n">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="O3" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="P3" t="n">
-        <v>4.33</v>
+        <v>3</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.7</v>
+        <v>2.25</v>
       </c>
       <c r="R3" t="n">
-        <v>2.1</v>
+        <v>1.62</v>
       </c>
       <c r="S3" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="T3" t="n">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U3" t="n">
-        <v>1.57</v>
+        <v>2</v>
       </c>
       <c r="V3" t="n">
-        <v>2.25</v>
+        <v>1.73</v>
       </c>
       <c r="W3" t="n">
-        <v>9.5</v>
+        <v>6</v>
       </c>
       <c r="X3" t="n">
-        <v>12</v>
+        <v>8.5</v>
       </c>
       <c r="Y3" t="n">
         <v>9</v>
       </c>
       <c r="Z3" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AA3" t="n">
         <v>17</v>
       </c>
       <c r="AB3" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AC3" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AD3" t="n">
         <v>6.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AF3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ3" t="n">
         <v>41</v>
       </c>
-      <c r="AG3" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>34</v>
-      </c>
       <c r="AK3" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AL3" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AM3" t="n">
-        <v>126</v>
+        <v>351</v>
       </c>
       <c r="AN3" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="AO3" t="n">
         <v>11</v>
       </c>
       <c r="AP3" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AQ3" t="n">
         <v>41</v>
       </c>
       <c r="AR3" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS3" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA3" t="n">
         <v>126</v>
       </c>
-      <c r="AT3" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>17</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>67</v>
-      </c>
       <c r="BB3" t="n">
-        <v>126</v>
+        <v>301</v>
       </c>
       <c r="BC3" t="n">
         <v>126</v>
@@ -1082,7 +1082,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>nLv6GUb4</t>
+          <t>McHsxfzM</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1097,162 +1097,162 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>CHILE - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Cobreloa</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Jaguares de Cordoba</t>
+          <t>Copiapo</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.55</v>
+        <v>2.2</v>
       </c>
       <c r="H4" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="I4" t="n">
-        <v>7</v>
+        <v>3.2</v>
       </c>
       <c r="J4" t="n">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="K4" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L4" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N4" t="n">
+        <v>13</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P4" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R4" t="n">
         <v>2.1</v>
       </c>
-      <c r="L4" t="n">
-        <v>7</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N4" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.6</v>
-      </c>
       <c r="S4" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="T4" t="n">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U4" t="n">
-        <v>2.38</v>
+        <v>1.57</v>
       </c>
       <c r="V4" t="n">
-        <v>1.53</v>
+        <v>2.25</v>
       </c>
       <c r="W4" t="n">
-        <v>5</v>
+        <v>9.5</v>
       </c>
       <c r="X4" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="Y4" t="n">
         <v>9</v>
       </c>
       <c r="Z4" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="AA4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF4" t="n">
         <v>41</v>
       </c>
-      <c r="AC4" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE4" t="n">
+      <c r="AG4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK4" t="n">
         <v>23</v>
       </c>
-      <c r="AF4" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>81</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>51</v>
-      </c>
       <c r="AL4" t="n">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="AM4" t="n">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="AN4" t="n">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="AO4" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AP4" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AQ4" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AR4" t="n">
         <v>51</v>
       </c>
       <c r="AS4" t="n">
-        <v>251</v>
+        <v>126</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="AU4" t="n">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="AV4" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AW4" t="n">
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="AX4" t="n">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="AY4" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="AZ4" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
       <c r="BA4" t="n">
-        <v>201</v>
+        <v>67</v>
       </c>
       <c r="BB4" t="n">
-        <v>351</v>
+        <v>126</v>
       </c>
       <c r="BC4" t="n">
         <v>126</v>
@@ -1264,7 +1264,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>jgocIjUi</t>
+          <t>nLv6GUb4</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,7 +1274,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>22:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1284,154 +1284,154 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Pereira</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Deportes Tolima</t>
+          <t>Jaguares de Cordoba</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3.4</v>
+        <v>1.55</v>
       </c>
       <c r="H5" t="n">
-        <v>2.88</v>
+        <v>3.6</v>
       </c>
       <c r="I5" t="n">
-        <v>2.4</v>
+        <v>7</v>
       </c>
       <c r="J5" t="n">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="K5" t="n">
-        <v>1.83</v>
+        <v>2.1</v>
       </c>
       <c r="L5" t="n">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="M5" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>5.5</v>
+        <v>9</v>
       </c>
       <c r="O5" t="n">
-        <v>1.57</v>
+        <v>1.4</v>
       </c>
       <c r="P5" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q5" t="n">
         <v>2.25</v>
       </c>
-      <c r="Q5" t="n">
-        <v>2.88</v>
-      </c>
       <c r="R5" t="n">
-        <v>1.4</v>
+        <v>1.62</v>
       </c>
       <c r="S5" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="T5" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="U5" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="V5" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="W5" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="X5" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA5" t="n">
         <v>15</v>
       </c>
-      <c r="Y5" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z5" t="n">
+      <c r="AB5" t="n">
         <v>41</v>
       </c>
-      <c r="AA5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>51</v>
-      </c>
       <c r="AC5" t="n">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF5" t="n">
         <v>81</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="AH5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>81</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>67</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>201</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU5" t="n">
         <v>10</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>900</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>67</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>126</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>351</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>9.5</v>
       </c>
       <c r="AV5" t="n">
         <v>81</v>
       </c>
       <c r="AW5" t="n">
-        <v>4.33</v>
+        <v>7.5</v>
       </c>
       <c r="AX5" t="n">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="AY5" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ5" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
       <c r="BA5" t="n">
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="BB5" t="n">
         <v>351</v>
@@ -1446,7 +1446,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>fgW4NmMs</t>
+          <t>jgocIjUi</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,113 +1456,113 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>DENMARK - 1ST DIVISION</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Hvidovre IF</t>
+          <t>Pereira</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Kolding IF</t>
+          <t>Deportes Tolima</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.38</v>
+        <v>3.4</v>
       </c>
       <c r="H6" t="n">
-        <v>3.25</v>
+        <v>2.88</v>
       </c>
       <c r="I6" t="n">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="J6" t="n">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="K6" t="n">
-        <v>2.05</v>
+        <v>1.83</v>
       </c>
       <c r="L6" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M6" t="n">
-        <v>1.07</v>
+        <v>1.14</v>
       </c>
       <c r="N6" t="n">
-        <v>8.5</v>
+        <v>5.5</v>
       </c>
       <c r="O6" t="n">
-        <v>1.36</v>
+        <v>1.57</v>
       </c>
       <c r="P6" t="n">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="Q6" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T6" t="n">
         <v>2.2</v>
       </c>
-      <c r="R6" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.5</v>
-      </c>
       <c r="U6" t="n">
-        <v>1.91</v>
+        <v>2.25</v>
       </c>
       <c r="V6" t="n">
-        <v>1.8</v>
+        <v>1.57</v>
       </c>
       <c r="W6" t="n">
         <v>7</v>
       </c>
       <c r="X6" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="Y6" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH6" t="n">
         <v>10</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>8</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>13</v>
       </c>
       <c r="AI6" t="n">
         <v>11</v>
       </c>
       <c r="AJ6" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AK6" t="n">
         <v>26</v>
@@ -1571,52 +1571,52 @@
         <v>41</v>
       </c>
       <c r="AM6" t="n">
+        <v>900</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>126</v>
+      </c>
+      <c r="AS6" t="n">
         <v>351</v>
       </c>
-      <c r="AN6" t="n">
+      <c r="AT6" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW6" t="n">
         <v>4.33</v>
       </c>
-      <c r="AO6" t="n">
+      <c r="AX6" t="n">
         <v>15</v>
       </c>
-      <c r="AP6" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>17</v>
-      </c>
       <c r="AY6" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ6" t="n">
         <v>51</v>
       </c>
       <c r="BA6" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB6" t="n">
-        <v>201</v>
+        <v>351</v>
       </c>
       <c r="BC6" t="n">
         <v>126</v>
@@ -1628,7 +1628,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>6urAWBOM</t>
+          <t>fgW4NmMs</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,47 +1638,47 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>ECUADOR - LIGA PRO</t>
+          <t>DENMARK - 1ST DIVISION</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Macara</t>
+          <t>Hvidovre IF</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Delfin</t>
+          <t>Kolding IF</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.95</v>
+        <v>2.38</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="I7" t="n">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="J7" t="n">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="K7" t="n">
         <v>2.05</v>
       </c>
       <c r="L7" t="n">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M7" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="O7" t="n">
         <v>1.36</v>
@@ -1693,10 +1693,10 @@
         <v>1.65</v>
       </c>
       <c r="S7" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T7" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U7" t="n">
         <v>1.91</v>
@@ -1705,49 +1705,49 @@
         <v>1.8</v>
       </c>
       <c r="W7" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X7" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="Y7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Z7" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AA7" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AB7" t="n">
         <v>34</v>
       </c>
       <c r="AC7" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF7" t="n">
         <v>51</v>
       </c>
       <c r="AG7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI7" t="n">
         <v>11</v>
       </c>
-      <c r="AH7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>15</v>
-      </c>
       <c r="AJ7" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AK7" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AL7" t="n">
         <v>41</v>
@@ -1756,16 +1756,16 @@
         <v>351</v>
       </c>
       <c r="AN7" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO7" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AP7" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ7" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR7" t="n">
         <v>67</v>
@@ -1774,36 +1774,218 @@
         <v>201</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU7" t="n">
         <v>8.5</v>
       </c>
       <c r="AV7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>6urAWBOM</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>07/10/2024</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>17:30</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>ECUADOR - LIGA PRO</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Macara</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Delfin</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+      <c r="I8" t="n">
+        <v>4</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L8" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N8" t="n">
+        <v>8</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>351</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR8" t="n">
         <v>67</v>
       </c>
-      <c r="AW7" t="n">
+      <c r="AS8" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW8" t="n">
         <v>5.5</v>
       </c>
-      <c r="AX7" t="n">
+      <c r="AX8" t="n">
         <v>23</v>
       </c>
-      <c r="AY7" t="n">
+      <c r="AY8" t="n">
         <v>34</v>
       </c>
-      <c r="AZ7" t="n">
+      <c r="AZ8" t="n">
         <v>81</v>
       </c>
-      <c r="BA7" t="n">
+      <c r="BA8" t="n">
         <v>101</v>
       </c>
-      <c r="BB7" t="n">
+      <c r="BB8" t="n">
         <v>251</v>
       </c>
-      <c r="BC7" t="n">
+      <c r="BC8" t="n">
         <v>51</v>
       </c>
-      <c r="BD7" t="n">
+      <c r="BD8" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-10-07.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-07.xlsx
@@ -1481,7 +1481,7 @@
         <v>2.88</v>
       </c>
       <c r="I6" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="J6" t="n">
         <v>4</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-07.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-07.xlsx
@@ -1111,22 +1111,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="H4" t="n">
         <v>3.4</v>
       </c>
       <c r="I4" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="J4" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K4" t="n">
         <v>2.3</v>
       </c>
       <c r="L4" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M4" t="n">
         <v>1.04</v>
@@ -1168,13 +1168,13 @@
         <v>9</v>
       </c>
       <c r="Z4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB4" t="n">
         <v>21</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>23</v>
       </c>
       <c r="AC4" t="n">
         <v>13</v>
@@ -1189,10 +1189,10 @@
         <v>41</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI4" t="n">
         <v>12</v>
@@ -1210,22 +1210,22 @@
         <v>126</v>
       </c>
       <c r="AN4" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP4" t="n">
         <v>19</v>
       </c>
       <c r="AQ4" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR4" t="n">
         <v>51</v>
       </c>
       <c r="AS4" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT4" t="n">
         <v>3.25</v>
@@ -1237,13 +1237,13 @@
         <v>41</v>
       </c>
       <c r="AW4" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AX4" t="n">
         <v>17</v>
       </c>
       <c r="AY4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ4" t="n">
         <v>51</v>
@@ -1258,7 +1258,7 @@
         <v>126</v>
       </c>
       <c r="BD4" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5">
@@ -1293,7 +1293,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="H5" t="n">
         <v>3.6</v>
@@ -1311,10 +1311,10 @@
         <v>7</v>
       </c>
       <c r="M5" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O5" t="n">
         <v>1.4</v>
@@ -1407,7 +1407,7 @@
         <v>51</v>
       </c>
       <c r="AS5" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT5" t="n">
         <v>2.5</v>
@@ -1475,7 +1475,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H6" t="n">
         <v>2.88</v>
@@ -1532,7 +1532,7 @@
         <v>13</v>
       </c>
       <c r="Z6" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AA6" t="n">
         <v>34</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-07.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-07.xlsx
@@ -1111,22 +1111,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H4" t="n">
         <v>3.4</v>
       </c>
       <c r="I4" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="J4" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K4" t="n">
         <v>2.3</v>
       </c>
       <c r="L4" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M4" t="n">
         <v>1.04</v>
@@ -1159,7 +1159,7 @@
         <v>2.25</v>
       </c>
       <c r="W4" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X4" t="n">
         <v>12</v>
@@ -1168,7 +1168,7 @@
         <v>9</v>
       </c>
       <c r="Z4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA4" t="n">
         <v>15</v>
@@ -1219,7 +1219,7 @@
         <v>19</v>
       </c>
       <c r="AQ4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR4" t="n">
         <v>51</v>
@@ -1243,7 +1243,7 @@
         <v>17</v>
       </c>
       <c r="AY4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AZ4" t="n">
         <v>51</v>
@@ -1475,7 +1475,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H6" t="n">
         <v>2.88</v>
@@ -1532,7 +1532,7 @@
         <v>13</v>
       </c>
       <c r="Z6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AA6" t="n">
         <v>34</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-07.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-07.xlsx
@@ -929,28 +929,28 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="H3" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I3" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J3" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="K3" t="n">
         <v>2.05</v>
       </c>
       <c r="L3" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O3" t="n">
         <v>1.36</v>
@@ -959,10 +959,10 @@
         <v>3</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R3" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S3" t="n">
         <v>1.5</v>
@@ -980,7 +980,7 @@
         <v>6</v>
       </c>
       <c r="X3" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Y3" t="n">
         <v>9</v>
@@ -995,7 +995,7 @@
         <v>34</v>
       </c>
       <c r="AC3" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD3" t="n">
         <v>6.5</v>
@@ -1004,10 +1004,10 @@
         <v>17</v>
       </c>
       <c r="AF3" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH3" t="n">
         <v>21</v>
@@ -1016,13 +1016,13 @@
         <v>15</v>
       </c>
       <c r="AJ3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AK3" t="n">
         <v>41</v>
       </c>
       <c r="AL3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM3" t="n">
         <v>351</v>
@@ -1031,16 +1031,16 @@
         <v>3.75</v>
       </c>
       <c r="AO3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP3" t="n">
         <v>23</v>
       </c>
       <c r="AQ3" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR3" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS3" t="n">
         <v>201</v>
@@ -1049,7 +1049,7 @@
         <v>2.5</v>
       </c>
       <c r="AU3" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV3" t="n">
         <v>67</v>
@@ -1058,7 +1058,7 @@
         <v>6</v>
       </c>
       <c r="AX3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AY3" t="n">
         <v>34</v>
@@ -1478,13 +1478,13 @@
         <v>3.4</v>
       </c>
       <c r="H6" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="I6" t="n">
         <v>2.45</v>
       </c>
       <c r="J6" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="K6" t="n">
         <v>1.83</v>
@@ -1553,7 +1553,7 @@
         <v>81</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AH6" t="n">
         <v>10</v>
@@ -1580,10 +1580,10 @@
         <v>21</v>
       </c>
       <c r="AP6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AQ6" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AR6" t="n">
         <v>126</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-07.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-07.xlsx
@@ -1475,22 +1475,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="H6" t="n">
         <v>2.8</v>
       </c>
       <c r="I6" t="n">
-        <v>2.45</v>
+        <v>2.7</v>
       </c>
       <c r="J6" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="K6" t="n">
         <v>1.83</v>
       </c>
       <c r="L6" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M6" t="n">
         <v>1.14</v>
@@ -1499,22 +1499,22 @@
         <v>5.5</v>
       </c>
       <c r="O6" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="P6" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="R6" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="S6" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="T6" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="U6" t="n">
         <v>2.25</v>
@@ -1523,16 +1523,16 @@
         <v>1.57</v>
       </c>
       <c r="W6" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X6" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y6" t="n">
         <v>13</v>
       </c>
       <c r="Z6" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AA6" t="n">
         <v>34</v>
@@ -1544,7 +1544,7 @@
         <v>5.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AE6" t="n">
         <v>21</v>
@@ -1553,19 +1553,19 @@
         <v>81</v>
       </c>
       <c r="AG6" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AH6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ6" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AK6" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AL6" t="n">
         <v>41</v>
@@ -1574,16 +1574,16 @@
         <v>900</v>
       </c>
       <c r="AN6" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AO6" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP6" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AQ6" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AR6" t="n">
         <v>126</v>
@@ -1592,7 +1592,7 @@
         <v>351</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AU6" t="n">
         <v>9.5</v>
@@ -1601,10 +1601,10 @@
         <v>81</v>
       </c>
       <c r="AW6" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AX6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AY6" t="n">
         <v>34</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-07.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-07.xlsx
@@ -1475,13 +1475,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H6" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="I6" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="J6" t="n">
         <v>4</v>
@@ -1517,10 +1517,10 @@
         <v>2.1</v>
       </c>
       <c r="U6" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="V6" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="W6" t="n">
         <v>6.5</v>
@@ -1541,7 +1541,7 @@
         <v>51</v>
       </c>
       <c r="AC6" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AD6" t="n">
         <v>5.5</v>
@@ -1562,7 +1562,7 @@
         <v>12</v>
       </c>
       <c r="AJ6" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AK6" t="n">
         <v>29</v>
@@ -1580,7 +1580,7 @@
         <v>19</v>
       </c>
       <c r="AP6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AQ6" t="n">
         <v>67</v>
@@ -1595,13 +1595,13 @@
         <v>2.1</v>
       </c>
       <c r="AU6" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV6" t="n">
         <v>81</v>
       </c>
       <c r="AW6" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AX6" t="n">
         <v>17</v>
